--- a/public/sample_data.xlsx
+++ b/public/sample_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iima1-my.sharepoint.com/personal/p23sundhar_iima_ac_in/Documents/Subjects/Term 6/Project Course/project_app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="11_F25DC773A252ABDACC104876499F41DE5BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45B18E3F-E6BE-429D-96AF-AFB80EB305B4}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="11_F25DC773A252ABDACC104876499F41DE5BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47B2D6D1-EF45-45E9-8CDF-9FF33531CB1D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -405,16 +405,16 @@
         <v>50</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
